--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_24_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100825.0650225811</v>
+        <v>18337312.30695665</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100825.0650225811</v>
+        <v>18337312.30695665</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>276574.6046716089</v>
+        <v>33435565.3305264</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>276574.6046716089</v>
+        <v>33435565.3305264</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1603220534.946811</v>
+        <v>20578035.61893519</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18973.23198181635</v>
+        <v>531958.5705427759</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37160.31915772266</v>
+        <v>945704.1254093804</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>55596.61526928528</v>
+        <v>1359449.680275984</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>74126.973870495</v>
+        <v>1693991.223813387</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>92360.99113826969</v>
+        <v>2125199.378757454</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>110472.6217610469</v>
+        <v>2538837.373701483</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>128584.4746550028</v>
+        <v>2952475.368645521</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>146696.5498201375</v>
+        <v>3366113.363589548</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>165299.717964834</v>
+        <v>3687236.158837463</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>183555.3560531448</v>
+        <v>4121198.913477603</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>201667.0858362096</v>
+        <v>4534836.908421613</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>219778.9387301658</v>
+        <v>4948474.903365625</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>237890.7916241224</v>
+        <v>5362112.898309632</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>256494.0224346153</v>
+        <v>5683235.693557572</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>276575.7429552712</v>
+        <v>5910463.962093461</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>53.99999999997505</v>
@@ -27052,13 +27052,13 @@
         <v>23.00000000004826</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>26.99999999998142</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,10 +27147,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
